--- a/biology/Histoire de la zoologie et de la botanique/Schltdl/Schltdl..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Schltdl/Schltdl..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diederich Franz Leonhard von Schlechtendal, né à Xanten (Duché de Clèves) le 27 novembre 1794 et mort à Halle-sur-Saale (Province de Saxe) le 12 octobre 1866 (à 71 ans), est un botaniste prussien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diederich Franz Leonhard von Schlechtendal est professeur de botanique et directeur du jardin botanique de l’université Martin-Luther de Halle-Wittemberg de 1833 à sa mort. Il est le rédacteur en chef du journal botanique Linnaea.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son œuvre la plus importante est la description de la flore du Mexique en collaboration avec Adelbert von Chamisso (1781-1838), travail basé sur des spécimens rassemblés par Christian Julius Wilhelm Schiede (1798-1836) et Ferdinand Deppe (1794-1861) entre 1824 et 1829. Il fait paraître Flora Berolinensis (deux volumes, 1823-1824) et collabore à la Flora von Deutschland (vingt-quatre volumes, 1840 à 1875).
 Il a aussi participé à la réalisation d'une flore de Thuringe (avec Jonathan Carl Zenker, Christian Eduard Langethal et Ernst Schenk : Flora von Thüringen und den angrenzenden provinzen - volumes multiples - Iena : F. Mauke, 1836-1855.
